--- a/biology/Zoologie/Emoia_laobaoense/Emoia_laobaoense.xlsx
+++ b/biology/Zoologie/Emoia_laobaoense/Emoia_laobaoense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emoia laobaoense est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emoia laobaoense est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Quảng Trị au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Quảng Trị au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourret, 1937 : Notes herpetologiques sur l'Indochine française. XII. Les lezards de la collection du Laboratoire des Sciences Naturelles de l'Universite. Descriptions de cinq especes nouvelles. Bulletin Général de l'Instruction publique de Hanoï, p. 1-22, 23-39.</t>
         </is>
